--- a/src/main/resources/receivableStaticsInvoice.xlsx
+++ b/src/main/resources/receivableStaticsInvoice.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t>单位：万元</t>
-  </si>
-  <si>
     <t>账龄分析</t>
   </si>
   <si>
@@ -173,6 +170,10 @@
   </si>
   <si>
     <t>{{sum}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +999,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,28 +1014,30 @@
     <col min="8" max="10" width="9" style="1"/>
     <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="57" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="20.25" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9" style="1"/>
+    <col min="16" max="16" width="10.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
     <col min="20" max="20" width="35.625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="G4" s="1" t="s">
+      <c r="Q4" s="17" t="s">
         <v>0</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>1</v>
       </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
@@ -1044,132 +1047,132 @@
     </row>
     <row r="5" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="Q5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="R5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="S5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="T5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="U5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="V5" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="R6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/receivableStaticsInvoice.xlsx
+++ b/src/main/resources/receivableStaticsInvoice.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>账龄分析</t>
   </si>
@@ -67,9 +67,6 @@
     <t>未到账</t>
   </si>
   <si>
-    <t>小于1年</t>
-  </si>
-  <si>
     <t>1-2年</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>坏账</t>
   </si>
   <si>
-    <t>合计</t>
-  </si>
-  <si>
     <t>t.contractNumber</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,10 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.limitAmount4}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{$fe:list t.taskId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,6 +164,27 @@
   </si>
   <si>
     <t>万元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6月</t>
+  </si>
+  <si>
+    <t>6-9月</t>
+  </si>
+  <si>
+    <t>9-12月</t>
+  </si>
+  <si>
+    <t>t.limitAmount4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.limitAmount5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.limitAmount6}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +372,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,17 +1007,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V6"/>
+  <dimension ref="A2:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
@@ -1014,28 +1025,30 @@
     <col min="8" max="10" width="9" style="1"/>
     <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="21" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="10.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="15.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
+    <col min="19" max="19" width="14.25" style="1" customWidth="1"/>
     <col min="20" max="20" width="35.625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="18.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="Q4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1057,9 @@
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
     </row>
-    <row r="5" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1095,89 +1109,98 @@
         <v>16</v>
       </c>
       <c r="Q5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="U5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="V5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="W5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="14" t="s">
+    </row>
+    <row r="6" spans="1:23" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="T6" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q4:W4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/receivableStaticsInvoice.xlsx
+++ b/src/main/resources/receivableStaticsInvoice.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>账龄分析</t>
   </si>
@@ -127,64 +127,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>t.limitAmount2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.limitAmount3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.noReceivedAmount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:list t.taskId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd:(t.invoiceDate;yyyy.MM.dd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{sum}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6月</t>
+  </si>
+  <si>
+    <t>6-9月</t>
+  </si>
+  <si>
+    <t>9-12月</t>
+  </si>
+  <si>
+    <t>t.limitAmount4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.limitAmount5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.limitAmount6}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>t.limitAmount1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.limitAmount2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.noReceivedAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:list t.taskId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fd:(t.invoiceDate;yyyy.MM.dd)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fd:(t.receivedDatee;yyyy.MM.dd)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{sum}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>万元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-6月</t>
-  </si>
-  <si>
-    <t>6-9月</t>
-  </si>
-  <si>
-    <t>9-12月</t>
-  </si>
-  <si>
-    <t>t.limitAmount4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount6}}</t>
+    <t>t.limitAmount0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1007,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W6"/>
+  <dimension ref="A2:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,41 +1033,41 @@
     <col min="8" max="10" width="9" style="1"/>
     <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="8.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="50.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="36" style="1" customWidth="1"/>
+    <col min="18" max="18" width="22.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="35.625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="Q4" s="17" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
     </row>
-    <row r="5" spans="1:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1109,36 +1117,39 @@
         <v>16</v>
       </c>
       <c r="Q5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="13" t="s">
+      <c r="U5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="V5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="W5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="X5" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -1171,36 +1182,39 @@
         <v>31</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q4:W4"/>
+    <mergeCell ref="R4:X4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/receivableStaticsInvoice.xlsx
+++ b/src/main/resources/receivableStaticsInvoice.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>账龄分析</t>
   </si>
@@ -107,38 +107,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.contractAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.invoiceAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.noTaxAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>t.contractUser</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>t.receivedAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.noReceivedAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{$fe:list t.taskId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{sum}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>万元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,32 +136,67 @@
     <t>9-12月</t>
   </si>
   <si>
-    <t>t.limitAmount4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount6}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-3月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.limitAmount0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>fn:(t.invoiceAmount;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.noTaxAmount;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.receivedAmount;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.noReceivedAmount;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.limitAmount0;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.limitAmount1;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.limitAmount2;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.limitAmount3;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.limitAmount4;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.limitAmount5;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.limitAmount6;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.badAmount;0.00)}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于3月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fn:(t.contractAmount;0.00)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fn:(sum;0.00)}}</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -372,9 +375,6 @@
     </xf>
     <xf numFmtId="57" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,57 +1017,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
-    <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="15.875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="50.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="36" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" customWidth="1"/>
     <col min="20" max="20" width="14.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="35.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="13.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
     </row>
-    <row r="5" spans="1:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1077,10 +1081,10 @@
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1117,16 +1121,16 @@
         <v>16</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>17</v>
@@ -1143,13 +1147,13 @@
     </row>
     <row r="6" spans="1:24" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -1170,46 +1174,49 @@
         <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>46</v>
+      <c r="X6" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
